--- a/22/resultados_actividad.xlsx
+++ b/22/resultados_actividad.xlsx
@@ -463,27 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_A (kWatts)</t>
+          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna  (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-04 (186.6544)</t>
+          <t>2024-10-21 (1542.7132)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-19 (-33.8555)</t>
+          <t>2024-10-22 (0.0112)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-04 14:00 (20.5738)</t>
+          <t>2024-10-16 14:00 (186.7777)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10-19 12:00 (-6.2668)</t>
+          <t>2024-10-22 00:00 (0.0112)</t>
         </is>
       </c>
     </row>

--- a/22/resultados_actividad.xlsx
+++ b/22/resultados_actividad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,27 +463,513 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>UTEM CIER DAVID-Mains_A (kWatts)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-10-21 (2212.656)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.2055)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (742.5)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.2055)</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Mains_B (kWatts)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-10-21 (243.606)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0228)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (81.642)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0228)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Mains_C (kWatts)</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-10-21 (271.752)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0252)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (91.17)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0252)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 1 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-10-21 (179.994)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0168)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (60.3)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0168)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 2 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-10-21 (72.366)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0065)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (24.396)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0065)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
           <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna  (kWatts)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2024-10-21 (1542.7132)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-10-21 (127.284)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>2024-10-22 (0.0112)</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024-10-16 14:00 (186.7777)</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (42.774)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2024-10-22 00:00 (0.0112)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna (kWatts)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-10-21 (153.978)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0137)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (51.594)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0137)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L1 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-10-21 (592.584)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0548)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (198.816)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0548)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L2 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-10-21 (288.012)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.027)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (96.834)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.027)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L3 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-10-21 (89.1)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0086)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (29.916)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0086)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L1 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-10-21 (1842.816)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.1714)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (618.6)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.1714)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L2 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-10-21 (268.65000000000003)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0251)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (90.3)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0251)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L3 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-10-21 (77.388)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-10-22 (0.0075)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (26.184)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (0.0075)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Solar/Generation-Inversor (kWatts)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-10-22 (-0.0368)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-10-21 (-394.218)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-10-22 00:00 (-0.0368)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-10-21 23:00 (-132.348)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Room/Multi-use Circuit-Contactos David (kWatts)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0.0)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0.0)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0.0)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Lights-Alumbrado (kWatts)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Lights-Alumbrado Fotovoltaico (kWatts)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0.0)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0.0)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0.0)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Other-Circuit_15 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>UTEM CIER DAVID-Other-Circuit_16 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-10-21 (0)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-10-21 21:00 (0)</t>
         </is>
       </c>
     </row>

--- a/22/resultados_actividad.xlsx
+++ b/22/resultados_actividad.xlsx
@@ -468,22 +468,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-21 (2212.656)</t>
+          <t>2024-10-04 (186.6544)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.2055)</t>
+          <t>2024-10-19 (-33.8555)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (742.5)</t>
+          <t>2024-10-04 14:00 (20.5738)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.2055)</t>
+          <t>2024-10-19 12:00 (-6.2668)</t>
         </is>
       </c>
     </row>
@@ -495,22 +495,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-10-21 (243.606)</t>
+          <t>2024-10-04 (134.2764)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0228)</t>
+          <t>2024-10-19 (-44.9622)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (81.642)</t>
+          <t>2024-09-30 18:00 (15.5394)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0228)</t>
+          <t>2024-10-19 12:00 (-6.3536)</t>
         </is>
       </c>
     </row>
@@ -522,22 +522,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-21 (271.752)</t>
+          <t>2024-10-04 (154.8382)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0252)</t>
+          <t>2024-10-22 (0.0254)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (91.17)</t>
+          <t>2024-10-15 12:00 (18.782)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0252)</t>
+          <t>2024-10-20 03:00 (0.002)</t>
         </is>
       </c>
     </row>
@@ -549,22 +549,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-10-21 (179.994)</t>
+          <t>2024-10-11 (98.375)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0168)</t>
+          <t>2024-10-22 (0.0169)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (60.3)</t>
+          <t>2024-10-21 14:00 (10.815199999999999)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0168)</t>
+          <t>2024-10-20 03:00 (0.0016)</t>
         </is>
       </c>
     </row>
@@ -576,22 +576,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-21 (72.366)</t>
+          <t>2024-10-11 (102.5999)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0065)</t>
+          <t>2024-10-22 (0.0068)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (24.396)</t>
+          <t>2024-10-21 14:00 (11.456399999999999)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0065)</t>
+          <t>2024-10-20 03:00 (0.0008)</t>
         </is>
       </c>
     </row>
@@ -603,22 +603,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-10-21 (127.284)</t>
+          <t>2024-10-04 (129.7996)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0112)</t>
+          <t>2024-10-22 (0.012)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (42.774)</t>
+          <t>2024-10-14 12:00 (12.4521)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0112)</t>
+          <t>2024-10-20 03:00 (0.0012)</t>
         </is>
       </c>
     </row>
@@ -630,22 +630,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-10-21 (153.978)</t>
+          <t>2024-10-04 (156.5772)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0137)</t>
+          <t>2024-10-22 (0.0143)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (51.594)</t>
+          <t>2024-10-21 12:00 (15.0679)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0137)</t>
+          <t>2024-10-20 03:00 (0.0012)</t>
         </is>
       </c>
     </row>
@@ -657,22 +657,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-10-21 (592.584)</t>
+          <t>2024-10-12 (4.9940999999999995)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0548)</t>
+          <t>2024-10-22 (0.0552)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (198.816)</t>
+          <t>2024-10-12 08:00 (0.5921)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0548)</t>
+          <t>2024-10-20 03:00 (0.0048)</t>
         </is>
       </c>
     </row>
@@ -684,22 +684,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-10-21 (288.012)</t>
+          <t>2024-10-14 (3.9116)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.027)</t>
+          <t>2024-10-22 (0.0269)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (96.834)</t>
+          <t>2024-10-14 23:00 (1.2638)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.027)</t>
+          <t>2024-10-20 03:00 (0.0024)</t>
         </is>
       </c>
     </row>
@@ -711,22 +711,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-10-21 (89.1)</t>
+          <t>2024-10-12 (1.9884)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0086)</t>
+          <t>2024-10-22 (0.0083)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (29.916)</t>
+          <t>2024-10-12 08:00 (1.2128)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0086)</t>
+          <t>2024-10-20 03:00 (0.0008)</t>
         </is>
       </c>
     </row>
@@ -738,22 +738,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-10-21 (1842.816)</t>
+          <t>2024-10-19 (55.509100000000004)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.1714)</t>
+          <t>2024-10-22 (0.1715)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (618.6)</t>
+          <t>2024-10-19 12:00 (6.4849)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.1714)</t>
+          <t>2024-09-27 07:00 (0.0)</t>
         </is>
       </c>
     </row>
@@ -765,22 +765,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-10-21 (268.65000000000003)</t>
+          <t>2024-10-19 (47.934)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0251)</t>
+          <t>2024-09-27 (0.0)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (90.3)</t>
+          <t>2024-10-19 12:00 (6.4168)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0251)</t>
+          <t>2024-09-26 00:00 (0.0)</t>
         </is>
       </c>
     </row>
@@ -792,22 +792,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-10-21 (77.388)</t>
+          <t>2024-10-15 (15.105599999999999)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0075)</t>
+          <t>2024-10-22 (0.0072)</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (26.184)</t>
+          <t>2024-10-15 10:00 (3.7023)</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (0.0075)</t>
+          <t>2024-10-20 03:00 (0.0)</t>
         </is>
       </c>
     </row>
@@ -819,22 +819,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-10-22 (-0.0368)</t>
+          <t>2024-09-26 (0.0)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2024-10-21 (-394.218)</t>
+          <t>2024-10-19 (-94.9404)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2024-10-22 00:00 (-0.0368)</t>
+          <t>2024-09-26 00:00 (0.0)</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-10-21 23:00 (-132.348)</t>
+          <t>2024-10-19 12:00 (-12.8142)</t>
         </is>
       </c>
     </row>
@@ -846,22 +846,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-10-21 (0.0)</t>
+          <t>2024-10-04 (4.1943)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2024-10-21 (0.0)</t>
+          <t>2024-09-27 (0.0)</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0.0)</t>
+          <t>2024-10-04 14:00 (1.1211)</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0.0)</t>
+          <t>2024-09-26 20:00 (0.0)</t>
         </is>
       </c>
     </row>
@@ -873,22 +873,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-10-21 (0)</t>
+          <t>2024-09-28 (8.9064)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2024-10-21 (0)</t>
+          <t>2024-10-22 (0.0)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0)</t>
+          <t>2024-09-28 22:00 (0.7435)</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0)</t>
+          <t>2024-09-26 07:00 (0.0)</t>
         </is>
       </c>
     </row>
@@ -900,22 +900,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-10-21 (0.0)</t>
+          <t>2024-10-18 (33.1053)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2024-10-21 (0.0)</t>
+          <t>2024-09-27 (0.0)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0.0)</t>
+          <t>2024-10-17 17:00 (3.2354000000000003)</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0.0)</t>
+          <t>2024-09-26 00:00 (0.0)</t>
         </is>
       </c>
     </row>
@@ -927,22 +927,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-10-21 (0)</t>
+          <t>2024-09-26 (0)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2024-10-21 (0)</t>
+          <t>2024-09-26 (0)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0)</t>
+          <t>2024-09-26 00:00 (0)</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0)</t>
+          <t>2024-09-26 00:00 (0)</t>
         </is>
       </c>
     </row>
@@ -954,22 +954,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-10-21 (0)</t>
+          <t>2024-09-26 (0)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2024-10-21 (0)</t>
+          <t>2024-09-26 (0)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0)</t>
+          <t>2024-09-26 00:00 (0)</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-10-21 21:00 (0)</t>
+          <t>2024-09-26 00:00 (0)</t>
         </is>
       </c>
     </row>

--- a/22/resultados_actividad.xlsx
+++ b/22/resultados_actividad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,384 +595,6 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna  (kWatts)</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2024-10-04 (129.7996)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.012)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2024-10-14 12:00 (12.4521)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2024-10-20 03:00 (0.0012)</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC Aula Magna (kWatts)</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2024-10-04 (156.5772)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.0143)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2024-10-21 12:00 (15.0679)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2024-10-20 03:00 (0.0012)</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L1 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2024-10-12 (4.9940999999999995)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.0552)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2024-10-12 08:00 (0.5921)</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2024-10-20 03:00 (0.0048)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2024-10-14 (3.9116)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.0269)</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2024-10-14 23:00 (1.2638)</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2024-10-20 03:00 (0.0024)</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tab Secundario L3 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2024-10-12 (1.9884)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.0083)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2024-10-12 08:00 (1.2128)</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2024-10-20 03:00 (0.0008)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L1 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2024-10-19 (55.509100000000004)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.1715)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2024-10-19 12:00 (6.4849)</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2024-09-27 07:00 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L2 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2024-10-19 (47.934)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>2024-09-27 (0.0)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2024-10-19 12:00 (6.4168)</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Sub Panel-Tablero Secundario2 L3 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2024-10-15 (15.105599999999999)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.0072)</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2024-10-15 10:00 (3.7023)</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>2024-10-20 03:00 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Solar/Generation-Inversor (kWatts)</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2024-09-26 (0.0)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2024-10-19 (-94.9404)</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0.0)</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2024-10-19 12:00 (-12.8142)</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Room/Multi-use Circuit-Contactos David (kWatts)</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2024-10-04 (4.1943)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2024-09-27 (0.0)</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2024-10-04 14:00 (1.1211)</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2024-09-26 20:00 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Lights-Alumbrado (kWatts)</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2024-09-28 (8.9064)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2024-10-22 (0.0)</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2024-09-28 22:00 (0.7435)</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>2024-09-26 07:00 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Lights-Alumbrado Fotovoltaico (kWatts)</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2024-10-18 (33.1053)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2024-09-27 (0.0)</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2024-10-17 17:00 (3.2354000000000003)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0.0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Other-Circuit_15 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2024-09-26 (0)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2024-09-26 (0)</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0)</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0)</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>UTEM CIER DAVID-Other-Circuit_16 (kWatts)</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>2024-09-26 (0)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2024-09-26 (0)</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0)</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>2024-09-26 00:00 (0)</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/22/resultados_actividad.xlsx
+++ b/22/resultados_actividad.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,135 +463,513 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_A (kWatts)</t>
+          <t>MÓDULO 2-Mains_A (kWatts)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-10-04 (186.6544)</t>
+          <t>2024-11-11 (9835.1155)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2024-10-19 (-33.8555)</t>
+          <t>2024-07-11 (667.2148)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-10-04 14:00 (20.5738)</t>
+          <t>2024-11-11 16:00 (614.2693)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2024-10-19 12:00 (-6.2668)</t>
+          <t>2024-07-11 21:00 (82.7527)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_B (kWatts)</t>
+          <t>MÓDULO 2-Mains_B (kWatts)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-10-04 (134.2764)</t>
+          <t>2024-09-11 (7497.1875)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2024-10-19 (-44.9622)</t>
+          <t>2024-07-11 (704.0383)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-09-30 18:00 (15.5394)</t>
+          <t>2024-08-11 13:00 (382.87760000000003)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2024-10-19 12:00 (-6.3536)</t>
+          <t>2024-07-11 21:00 (86.1229)</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Mains_C (kWatts)</t>
+          <t>MÓDULO 2-Mains_C (kWatts)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-10-04 (154.8382)</t>
+          <t>2024-12-11 (7605.8127)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0254)</t>
+          <t>2024-07-11 (701.076)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-10-15 12:00 (18.782)</t>
+          <t>2024-12-11 12:00 (374.6875)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2024-10-20 03:00 (0.002)</t>
+          <t>2024-07-11 21:00 (87.2604)</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 1 (kWatts)</t>
+          <t>MÓDULO 2-Air Conditioner-sala de juntas- dirección baja (kWatts)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-10-11 (98.375)</t>
+          <t>2024-12-11 (1259.4165)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0169)</t>
+          <t>2024-07-11 (0.0008)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-10-21 14:00 (10.815199999999999)</t>
+          <t>2024-12-11 13:00 (194.2836)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2024-10-20 03:00 (0.0016)</t>
+          <t>2024-07-11 21:00 (0.0)</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UTEM CIER DAVID-Air Conditioner-AC fotovoltaica 2 (kWatts)</t>
+          <t>MÓDULO 2-Air Conditioner-recepcion (kWatts)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-10-11 (102.5999)</t>
+          <t>2024-12-11 (389.5133)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2024-10-22 (0.0068)</t>
+          <t>2024-07-11 (0.0002)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-10-21 14:00 (11.456399999999999)</t>
+          <t>2024-12-11 10:00 (77.1121)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2024-10-20 03:00 (0.0008)</t>
+          <t>2024-07-11 22:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-rack (kWatts)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-11-11 (312.8198)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2024-07-11 (22.9203)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2024-11-11 11:00 (18.8749)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.5093)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula3 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-11-11 (731.5966)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0002)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2024-11-11 13:00 (183.1766)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 10 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-12-11 (523.9044)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0233)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2024-12-11 14:00 (147.8104)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-bodega (kWatts)</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-11-11 (428.3295)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.392)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-11-11 12:00 (66.7935)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0502)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Other-capacitores (kWatts)</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-09-11 (22574.6725)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2024-07-11 (2117.1894)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-10-11 08:00 (988.6399)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (262.7667)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 9 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-11-11 (2683.6115)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0194)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:00 (243.3615)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0029)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aire cubiculos (kWatts)</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-11-11 (0.0014)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-11-11 14:00 (0.0006000000000000001)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula8 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-12-11 (603.2949)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-12-11 15:00 (156.8691)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 9 alta (kWatts)</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-12-11 (3496.091)</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0002)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-08-11 15:00 (306.9085)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-sala conferencias baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-11-11 (230.4165)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0006000000000000001)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-11-11 16:00 (49.7513)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-07-11 23:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula2 baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-08-11 (197.06980000000001)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-08-11 13:00 (132.0232)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Air Conditioner-aula 1baja (kWatts)</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2024-10-11 (18.887700000000002)</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0.0028)</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-10-11 08:00 (18.839900000000004)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-09-11 16:00 (0.0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Other-Circuit_15 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0)</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0)</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0)</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MÓDULO 2-Other-Circuit_16 (kWatts)</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0)</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2024-07-11 (0)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0)</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-07-11 21:00 (0)</t>
         </is>
       </c>
     </row>
